--- a/Tables/Buff.xlsx
+++ b/Tables/Buff.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C3D369-0749-4FFD-B7B6-43D6204814E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6996D170-7354-4644-9697-AD29AF79CB33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -120,6 +120,60 @@
   </si>
   <si>
     <t>Duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Moment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻节点，
+查阅枚举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为类型，
+查阅枚举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targets)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,10 +574,11 @@
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,11 +591,29 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -550,11 +626,25 @@
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -570,8 +660,16 @@
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -587,8 +685,16 @@
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -604,8 +710,16 @@
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -621,8 +735,16 @@
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -635,11 +757,27 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -652,11 +790,17 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -669,11 +813,17 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -686,11 +836,17 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -703,7 +859,13 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Tables/Buff.xlsx
+++ b/Tables/Buff.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6996D170-7354-4644-9697-AD29AF79CB33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93500951-AEC5-4AE4-B9B4-2603CC22ADD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GemsIcons/80</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,6 +877,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>100</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
